--- a/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.02789355319203728</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.215285994576922</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.057726240477212</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.248938914349879</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.270705625358242</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.307859279926047</v>
+        <v>0.3078495122064144</v>
       </c>
       <c r="C3">
-        <v>0.405109930685106</v>
+        <v>0.9907757216018543</v>
       </c>
       <c r="D3">
-        <v>0.8359395885970605</v>
+        <v>3.834933672003624</v>
       </c>
       <c r="E3">
-        <v>0.9142973195832199</v>
+        <v>1.958298667722476</v>
       </c>
       <c r="F3">
-        <v>0.869474264948472</v>
+        <v>1.953193691581727</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5119609394625811</v>
+        <v>0.5026725460285077</v>
       </c>
       <c r="C4">
-        <v>0.7369320545250918</v>
+        <v>0.929047527443231</v>
       </c>
       <c r="D4">
-        <v>1.860995259319267</v>
+        <v>2.924062460148327</v>
       </c>
       <c r="E4">
-        <v>1.364183000670829</v>
+        <v>1.709989023399954</v>
       </c>
       <c r="F4">
-        <v>1.277310334090884</v>
+        <v>1.651030220003511</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3825092509739639</v>
+        <v>0.4047018885367898</v>
       </c>
       <c r="C5">
-        <v>0.7238086900733088</v>
+        <v>0.9282943766575162</v>
       </c>
       <c r="D5">
-        <v>2.142332109311951</v>
+        <v>2.415686991994554</v>
       </c>
       <c r="E5">
-        <v>1.463670765340331</v>
+        <v>1.554248047125861</v>
       </c>
       <c r="F5">
-        <v>1.427446148497766</v>
+        <v>1.519276458629088</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4008483567664324</v>
+        <v>0.4085208311999072</v>
       </c>
       <c r="C6">
-        <v>0.7553003207372345</v>
+        <v>1.124618687279181</v>
       </c>
       <c r="D6">
-        <v>2.122336621932141</v>
+        <v>3.481292747243496</v>
       </c>
       <c r="E6">
-        <v>1.456824156146562</v>
+        <v>1.865822271076079</v>
       </c>
       <c r="F6">
-        <v>1.415413227436246</v>
+        <v>1.850644102371714</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.355714896895947</v>
+        <v>0.3717076344828045</v>
       </c>
       <c r="C7">
-        <v>0.745948812660461</v>
+        <v>1.129284152641079</v>
       </c>
       <c r="D7">
-        <v>2.281872850250227</v>
+        <v>3.575005111591263</v>
       </c>
       <c r="E7">
-        <v>1.510586922441151</v>
+        <v>1.890768391842656</v>
       </c>
       <c r="F7">
-        <v>1.487299307405034</v>
+        <v>1.886685660052109</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3170486853216056</v>
+        <v>0.3354661335863303</v>
       </c>
       <c r="C8">
-        <v>0.7922487356515092</v>
+        <v>1.162998262110728</v>
       </c>
       <c r="D8">
-        <v>2.350309143279257</v>
+        <v>3.668451155248531</v>
       </c>
       <c r="E8">
-        <v>1.533071799779533</v>
+        <v>1.915320118217456</v>
       </c>
       <c r="F8">
-        <v>1.520063942714197</v>
+        <v>1.921634600347395</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3677442528603881</v>
+        <v>0.2608331698376827</v>
       </c>
       <c r="C9">
-        <v>1.040971235551029</v>
+        <v>1.384843998384835</v>
       </c>
       <c r="D9">
-        <v>3.891846167732178</v>
+        <v>4.935921458881455</v>
       </c>
       <c r="E9">
-        <v>1.972776258913356</v>
+        <v>2.221693376431918</v>
       </c>
       <c r="F9">
-        <v>1.98606164275718</v>
+        <v>2.266787531232051</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07220464489952828</v>
+        <v>-0.04940651898553428</v>
       </c>
       <c r="C10">
-        <v>0.8234635613802332</v>
+        <v>1.543617672872793</v>
       </c>
       <c r="D10">
-        <v>1.814949153154471</v>
+        <v>7.022163362167988</v>
       </c>
       <c r="E10">
-        <v>1.347200487364249</v>
+        <v>2.649936482666705</v>
       </c>
       <c r="F10">
-        <v>1.396046588205744</v>
+        <v>2.767287288312191</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.8476851521374721</v>
+        <v>-1.179433075504977</v>
       </c>
       <c r="C11">
-        <v>0.8476851521374721</v>
+        <v>1.408491936864403</v>
       </c>
       <c r="D11">
-        <v>0.9146264493203358</v>
+        <v>4.397925503565186</v>
       </c>
       <c r="E11">
-        <v>0.9563610454845679</v>
+        <v>2.097123149356086</v>
       </c>
       <c r="F11">
-        <v>0.4950458718214991</v>
+        <v>1.938705471432567</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02789355319203728</v>
+        <v>0.09788908052730215</v>
       </c>
       <c r="C2">
-        <v>1.215285994576922</v>
+        <v>0.335102348664815</v>
       </c>
       <c r="D2">
-        <v>5.057726240477212</v>
+        <v>0.3535955084851918</v>
       </c>
       <c r="E2">
-        <v>2.248938914349879</v>
+        <v>0.594638973230978</v>
       </c>
       <c r="F2">
-        <v>2.270705625358242</v>
+        <v>0.5922487602141151</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3078495122064144</v>
+        <v>0.2490523672941219</v>
       </c>
       <c r="C3">
-        <v>0.9907757216018543</v>
+        <v>0.7190685700340571</v>
       </c>
       <c r="D3">
-        <v>3.834933672003624</v>
+        <v>1.215519356195628</v>
       </c>
       <c r="E3">
-        <v>1.958298667722476</v>
+        <v>1.10250594383687</v>
       </c>
       <c r="F3">
-        <v>1.953193691581727</v>
+        <v>1.084694482345899</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5026725460285077</v>
+        <v>0.5894233596642614</v>
       </c>
       <c r="C4">
-        <v>0.929047527443231</v>
+        <v>0.9008946303567875</v>
       </c>
       <c r="D4">
-        <v>2.924062460148327</v>
+        <v>2.205314398756898</v>
       </c>
       <c r="E4">
-        <v>1.709989023399954</v>
+        <v>1.485030100286488</v>
       </c>
       <c r="F4">
-        <v>1.651030220003511</v>
+        <v>1.376884423676235</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4047018885367898</v>
+        <v>0.3608719394995029</v>
       </c>
       <c r="C5">
-        <v>0.9282943766575162</v>
+        <v>0.9602851306804567</v>
       </c>
       <c r="D5">
-        <v>2.415686991994554</v>
+        <v>2.593079633011949</v>
       </c>
       <c r="E5">
-        <v>1.554248047125861</v>
+        <v>1.610304205115278</v>
       </c>
       <c r="F5">
-        <v>1.519276458629088</v>
+        <v>1.585610441980187</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4085208311999072</v>
+        <v>0.4922773315969051</v>
       </c>
       <c r="C6">
-        <v>1.124618687279181</v>
+        <v>0.9502479493674117</v>
       </c>
       <c r="D6">
-        <v>3.481292747243496</v>
+        <v>2.535544773781611</v>
       </c>
       <c r="E6">
-        <v>1.865822271076079</v>
+        <v>1.592339402822655</v>
       </c>
       <c r="F6">
-        <v>1.850644102371714</v>
+        <v>1.53035925780564</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3717076344828045</v>
+        <v>0.3820685963133433</v>
       </c>
       <c r="C7">
-        <v>1.129284152641079</v>
+        <v>0.8448709767778345</v>
       </c>
       <c r="D7">
-        <v>3.575005111591263</v>
+        <v>2.538317255165756</v>
       </c>
       <c r="E7">
-        <v>1.890768391842656</v>
+        <v>1.593209733577396</v>
       </c>
       <c r="F7">
-        <v>1.886685660052109</v>
+        <v>1.566938792948644</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3354661335863303</v>
+        <v>0.4051237794541663</v>
       </c>
       <c r="C8">
-        <v>1.162998262110728</v>
+        <v>0.9263031120077183</v>
       </c>
       <c r="D8">
-        <v>3.668451155248531</v>
+        <v>2.696411648248952</v>
       </c>
       <c r="E8">
-        <v>1.915320118217456</v>
+        <v>1.642075408819264</v>
       </c>
       <c r="F8">
-        <v>1.921634600347395</v>
+        <v>1.612676825583574</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2608331698376827</v>
+        <v>0.3398840034424069</v>
       </c>
       <c r="C9">
-        <v>1.384843998384835</v>
+        <v>1.065209915832154</v>
       </c>
       <c r="D9">
-        <v>4.935921458881455</v>
+        <v>4.137733237635551</v>
       </c>
       <c r="E9">
-        <v>2.221693376431918</v>
+        <v>2.034141892208002</v>
       </c>
       <c r="F9">
-        <v>2.266787531232051</v>
+        <v>2.05507243349997</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04940651898553428</v>
+        <v>0.05151455505799022</v>
       </c>
       <c r="C10">
-        <v>1.543617672872793</v>
+        <v>0.8135860526754219</v>
       </c>
       <c r="D10">
-        <v>7.022163362167988</v>
+        <v>1.803889379070564</v>
       </c>
       <c r="E10">
-        <v>2.649936482666705</v>
+        <v>1.343089490343277</v>
       </c>
       <c r="F10">
-        <v>2.767287288312191</v>
+        <v>1.392764235822703</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-1.179433075504977</v>
+        <v>0.8476851521374721</v>
       </c>
       <c r="C11">
-        <v>1.408491936864403</v>
+        <v>0.8476851521374721</v>
       </c>
       <c r="D11">
-        <v>4.397925503565186</v>
+        <v>0.9146264493203358</v>
       </c>
       <c r="E11">
-        <v>2.097123149356086</v>
+        <v>0.9563610454845679</v>
       </c>
       <c r="F11">
-        <v>1.938705471432567</v>
+        <v>0.4950458718214991</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.09788908052730215</v>
+        <v>0.005905376899807375</v>
       </c>
       <c r="C2">
-        <v>0.335102348664815</v>
+        <v>0.5206627543158415</v>
       </c>
       <c r="D2">
-        <v>0.3535955084851918</v>
+        <v>0.486292670446743</v>
       </c>
       <c r="E2">
-        <v>0.594638973230978</v>
+        <v>0.6973468795705212</v>
       </c>
       <c r="F2">
-        <v>0.5922487602141151</v>
+        <v>0.7042605717416123</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2490523672941219</v>
+        <v>0.1582397940106579</v>
       </c>
       <c r="C3">
-        <v>0.7190685700340571</v>
+        <v>0.7400102157914225</v>
       </c>
       <c r="D3">
-        <v>1.215519356195628</v>
+        <v>1.080801010548076</v>
       </c>
       <c r="E3">
-        <v>1.10250594383687</v>
+        <v>1.039615799489444</v>
       </c>
       <c r="F3">
-        <v>1.084694482345899</v>
+        <v>1.037934161993035</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5894233596642614</v>
+        <v>0.5032026291008911</v>
       </c>
       <c r="C4">
-        <v>0.9008946303567875</v>
+        <v>0.8922265240678954</v>
       </c>
       <c r="D4">
-        <v>2.205314398756898</v>
+        <v>2.069469438159964</v>
       </c>
       <c r="E4">
-        <v>1.485030100286488</v>
+        <v>1.438565062192171</v>
       </c>
       <c r="F4">
-        <v>1.376884423676235</v>
+        <v>1.361651655305897</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3608719394995029</v>
+        <v>0.2693578958294761</v>
       </c>
       <c r="C5">
-        <v>0.9602851306804567</v>
+        <v>1.016380599619249</v>
       </c>
       <c r="D5">
-        <v>2.593079633011949</v>
+        <v>2.581576023358325</v>
       </c>
       <c r="E5">
-        <v>1.610304205115278</v>
+        <v>1.606728360164942</v>
       </c>
       <c r="F5">
-        <v>1.585610441980187</v>
+        <v>1.60075163642296</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4922773315969051</v>
+        <v>0.3948146875153234</v>
       </c>
       <c r="C6">
-        <v>0.9502479493674117</v>
+        <v>0.9953206441242253</v>
       </c>
       <c r="D6">
-        <v>2.535544773781611</v>
+        <v>2.563081422080346</v>
       </c>
       <c r="E6">
-        <v>1.592339402822655</v>
+        <v>1.600962654805022</v>
       </c>
       <c r="F6">
-        <v>1.53035925780564</v>
+        <v>1.568289922150866</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3820685963133433</v>
+        <v>0.2594199654285525</v>
       </c>
       <c r="C7">
-        <v>0.8448709767778345</v>
+        <v>0.9106554091308247</v>
       </c>
       <c r="D7">
-        <v>2.538317255165756</v>
+        <v>2.630675961980921</v>
       </c>
       <c r="E7">
-        <v>1.593209733577396</v>
+        <v>1.621935868639978</v>
       </c>
       <c r="F7">
-        <v>1.566938792948644</v>
+        <v>1.622546674077204</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4051237794541663</v>
+        <v>0.2821028187081914</v>
       </c>
       <c r="C8">
-        <v>0.9263031120077183</v>
+        <v>1.011255251399394</v>
       </c>
       <c r="D8">
-        <v>2.696411648248952</v>
+        <v>2.812336803878879</v>
       </c>
       <c r="E8">
-        <v>1.642075408819264</v>
+        <v>1.677002326736275</v>
       </c>
       <c r="F8">
-        <v>1.612676825583574</v>
+        <v>1.675907115328919</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3398840034424069</v>
+        <v>0.1185803502089819</v>
       </c>
       <c r="C9">
-        <v>1.065209915832154</v>
+        <v>1.184444939933787</v>
       </c>
       <c r="D9">
-        <v>4.137733237635551</v>
+        <v>4.416253151345821</v>
       </c>
       <c r="E9">
-        <v>2.034141892208002</v>
+        <v>2.101488318155925</v>
       </c>
       <c r="F9">
-        <v>2.05507243349997</v>
+        <v>2.152646315557749</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05151455505799022</v>
+        <v>-0.2292869361971864</v>
       </c>
       <c r="C10">
-        <v>0.8135860526754219</v>
+        <v>0.9020389666515667</v>
       </c>
       <c r="D10">
-        <v>1.803889379070564</v>
+        <v>1.950978095459872</v>
       </c>
       <c r="E10">
-        <v>1.343089490343277</v>
+        <v>1.396774174825649</v>
       </c>
       <c r="F10">
-        <v>1.392764235822703</v>
+        <v>1.434087187974152</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.8476851521374721</v>
+        <v>0.5298242459204994</v>
       </c>
       <c r="C11">
-        <v>0.8476851521374721</v>
+        <v>0.6893243425020978</v>
       </c>
       <c r="D11">
-        <v>0.9146264493203358</v>
+        <v>0.5354836367501077</v>
       </c>
       <c r="E11">
-        <v>0.9563610454845679</v>
+        <v>0.7317674745095656</v>
       </c>
       <c r="F11">
-        <v>0.4950458718214991</v>
+        <v>0.5643247128038097</v>
       </c>
       <c r="G11">
         <v>5</v>
